--- a/src/analysis_examples/circadb/results_lomb/cosinor_10556082_ppfibp2_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10556082_ppfibp2_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.279006658965275, 0.3690697369806192]</t>
+          <t>[0.2803077063584857, 0.3677686895874085]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.126210236179759e-12</v>
+        <v>6.392664175791651e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>1.126210236179759e-12</v>
+        <v>6.392664175791651e-13</v>
       </c>
       <c r="O2" t="n">
         <v>-1.195000208572694</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.40433763033902426, 0.4546705432929372]</t>
+          <t>[0.40433666949100217, 0.4546715041409593]</t>
         </is>
       </c>
       <c r="U2" t="n">
